--- a/posesiones/1486017.xlsx
+++ b/posesiones/1486017.xlsx
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>18</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>18</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>8</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R22">
         <v>13</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24">
         <v>15</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>18</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>18</v>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>31</v>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>17</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>27</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R42">
         <v>20</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R44">
         <v>5</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R46">
         <v>18</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50">
         <v>21</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R52">
         <v>20</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R56">
         <v>15</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4694,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R64">
         <v>18</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>19</v>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R67">
         <v>24</v>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5520,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R77">
         <v>9</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>25</v>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5817,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R83">
         <v>9</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R86">
         <v>17</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R88">
         <v>5</v>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R90">
         <v>7</v>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R91">
         <v>18</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6320,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R93">
         <v>17</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R95">
         <v>24</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R97">
         <v>18</v>
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R98">
         <v>19</v>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R100">
         <v>10</v>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6782,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R102">
         <v>7</v>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7211,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R111">
         <v>13</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>18</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R123">
         <v>9</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7896,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R125">
         <v>6</v>
@@ -7940,10 +7940,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8454,10 +8454,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8507,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R138">
         <v>14</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R140">
         <v>21</v>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8892,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R147">
         <v>23</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9045,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R149">
         <v>17</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9242,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R153">
         <v>9</v>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9624,7 +9624,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R161">
         <v>5</v>
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R162">
         <v>23</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9780,7 +9780,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R164">
         <v>19</v>
@@ -9833,7 +9833,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R165">
         <v>20</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9933,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R167">
         <v>9</v>
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10036,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R169">
         <v>8</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10139,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R171">
         <v>11</v>
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10236,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10283,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10330,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R186">
         <v>27</v>
@@ -10903,7 +10903,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R187">
         <v>14</v>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11003,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R189">
         <v>17</v>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R191">
         <v>4</v>
@@ -11159,7 +11159,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R192">
         <v>14</v>
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11500,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R199">
         <v>14</v>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11603,7 +11603,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R201">
         <v>18</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11706,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R203">
         <v>16</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R204">
         <v>18</v>
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12094,7 +12094,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R211">
         <v>19</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12285,7 +12285,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R215">
         <v>21</v>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R216">
         <v>23</v>
@@ -12388,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12438,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R218">
         <v>18</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12541,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R220">
         <v>13</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12735,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12879,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R227">
         <v>5</v>
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13070,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13164,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R234">
         <v>17</v>
@@ -13267,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R235">
         <v>14</v>
@@ -13320,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R236">
         <v>23</v>
@@ -13373,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R237">
         <v>6</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13473,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R239">
         <v>7</v>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13576,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R241">
         <v>3</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13670,7 +13670,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13717,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R246">
         <v>19</v>
@@ -13864,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13911,7 +13911,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R251">
         <v>8</v>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14155,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14252,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R255">
         <v>10</v>
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R257">
         <v>12</v>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R258">
         <v>14</v>
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R260">
         <v>5</v>
@@ -14552,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14599,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14887,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R268">
         <v>15</v>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14984,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15031,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15078,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15125,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R274">
         <v>26</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15266,10 +15266,10 @@
         <v>1</v>
       </c>
       <c r="P276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15316,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15363,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15410,7 +15410,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15498,10 +15498,10 @@
         <v>1</v>
       </c>
       <c r="P281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q281">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15551,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R282">
         <v>11</v>
@@ -15601,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15651,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R284">
         <v>26</v>
@@ -15704,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15754,7 +15754,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R286">
         <v>6</v>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15854,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R288">
         <v>6</v>
@@ -15904,7 +15904,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15998,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16048,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R292">
         <v>24</v>
@@ -16098,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16148,7 +16148,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R294">
         <v>26</v>
@@ -16201,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16251,7 +16251,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R296">
         <v>10</v>
@@ -16304,7 +16304,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R297">
         <v>16</v>
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16404,7 +16404,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R299">
         <v>18</v>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16551,7 +16551,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16648,7 +16648,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R304">
         <v>5</v>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16792,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16842,7 +16842,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R308">
         <v>22</v>
@@ -16892,7 +16892,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16992,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R311">
         <v>6</v>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17092,7 +17092,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R313">
         <v>19</v>
@@ -17145,7 +17145,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R314">
         <v>15</v>
@@ -17195,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17242,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17339,7 +17339,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R318">
         <v>0</v>
@@ -17392,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17486,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17536,7 +17536,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R322">
         <v>16</v>
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17683,7 +17683,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R325">
         <v>0</v>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17827,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17874,7 +17874,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17924,7 +17924,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R330">
         <v>23</v>
@@ -17977,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R331">
         <v>19</v>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18080,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R333">
         <v>9</v>
@@ -18133,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18183,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R335">
         <v>22</v>
@@ -18233,7 +18233,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18280,7 +18280,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18421,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18471,7 +18471,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R341">
         <v>26</v>
@@ -18521,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18571,7 +18571,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18665,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18759,7 +18759,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18806,7 +18806,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18859,7 +18859,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R349">
         <v>43</v>
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18956,7 +18956,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19097,7 +19097,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19147,7 +19147,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R355">
         <v>17</v>
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19341,7 +19341,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19391,7 +19391,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R360">
         <v>4</v>
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19488,7 +19488,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19632,7 +19632,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R365">
         <v>11</v>
@@ -19682,7 +19682,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19776,7 +19776,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19920,7 +19920,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R371">
         <v>12</v>
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20020,7 +20020,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20073,7 +20073,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R374">
         <v>11</v>
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20173,7 +20173,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R376">
         <v>9</v>
@@ -20223,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20367,7 +20367,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R380">
         <v>0</v>
@@ -20417,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20464,7 +20464,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20561,7 +20561,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20608,7 +20608,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20699,7 +20699,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20749,7 +20749,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R388">
         <v>20</v>
@@ -20802,7 +20802,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R389">
         <v>0</v>
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20899,7 +20899,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20946,7 +20946,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20996,7 +20996,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R393">
         <v>0</v>
@@ -21049,7 +21049,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R394">
         <v>15</v>
@@ -21099,7 +21099,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21146,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21240,7 +21240,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21287,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21334,7 +21334,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21384,7 +21384,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R401">
         <v>21</v>
@@ -21437,7 +21437,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R402">
         <v>7</v>
@@ -21487,7 +21487,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21537,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21584,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21631,7 +21631,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21678,7 +21678,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21728,7 +21728,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R408">
         <v>6</v>
@@ -21781,7 +21781,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21828,7 +21828,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21875,7 +21875,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21922,7 +21922,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21969,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22016,7 +22016,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22066,7 +22066,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R415">
         <v>13</v>
@@ -22119,7 +22119,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R416">
         <v>19</v>
@@ -22169,7 +22169,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22219,7 +22219,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22269,7 +22269,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R419">
         <v>25</v>
@@ -22322,7 +22322,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R420">
         <v>13</v>
@@ -22375,7 +22375,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22422,7 +22422,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22469,7 +22469,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22516,7 +22516,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22563,7 +22563,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22704,7 +22704,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22751,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22801,7 +22801,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R430">
         <v>28</v>
@@ -22845,10 +22845,10 @@
         <v>1</v>
       </c>
       <c r="P431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q431">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22895,7 +22895,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22942,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23036,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23130,7 +23130,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23171,10 +23171,10 @@
         <v>1</v>
       </c>
       <c r="P438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q438">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23268,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23365,7 +23365,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23415,7 +23415,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R443">
         <v>29</v>
@@ -23465,7 +23465,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23609,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23800,7 +23800,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R451">
         <v>25</v>
@@ -23853,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23903,7 +23903,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R453">
         <v>11</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24003,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24100,7 +24100,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24150,7 +24150,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R458">
         <v>32</v>
@@ -24203,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24253,7 +24253,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R460">
         <v>9</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24350,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24400,7 +24400,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R463">
         <v>19</v>
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24500,7 +24500,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R465">
         <v>20</v>
@@ -24553,7 +24553,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24603,7 +24603,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R467">
         <v>23</v>
@@ -24656,7 +24656,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24706,7 +24706,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R469">
         <v>8</v>
@@ -24756,7 +24756,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24806,7 +24806,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R471">
         <v>10</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24947,7 +24947,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25088,7 +25088,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25138,7 +25138,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R478">
         <v>20</v>
@@ -25188,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25285,7 +25285,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R482">
         <v>30</v>
@@ -25388,7 +25388,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25438,7 +25438,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R484">
         <v>4</v>
@@ -25488,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25582,7 +25582,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25632,7 +25632,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R488">
         <v>20</v>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R489">
         <v>16</v>
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25832,7 +25832,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R492">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25935,7 +25935,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R494">
         <v>16</v>
@@ -25988,7 +25988,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R495">
         <v>14</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26132,7 +26132,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26179,7 +26179,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26226,7 +26226,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26276,7 +26276,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R501">
         <v>0</v>
@@ -26326,7 +26326,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R502">
         <v>26</v>
@@ -26376,7 +26376,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26473,7 +26473,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R505">
         <v>22</v>
@@ -26526,7 +26526,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26576,7 +26576,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R507">
         <v>9</v>
@@ -26626,7 +26626,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26720,7 +26720,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26767,7 +26767,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26817,7 +26817,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R512">
         <v>20</v>
@@ -26870,7 +26870,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26920,7 +26920,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R514">
         <v>23</v>
@@ -26973,7 +26973,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R515">
         <v>10</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27073,7 +27073,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27120,7 +27120,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27170,7 +27170,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R519">
         <v>14</v>
@@ -27223,7 +27223,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R520">
         <v>16</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27323,7 +27323,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R523">
         <v>5</v>
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27470,7 +27470,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R525">
         <v>25</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27573,7 +27573,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R527">
         <v>20</v>
@@ -27623,7 +27623,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27720,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R530">
         <v>6</v>
@@ -27773,7 +27773,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27823,7 +27823,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R532">
         <v>23</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27923,7 +27923,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R534">
         <v>20</v>
@@ -27976,7 +27976,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R535">
         <v>18</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28120,7 +28120,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28167,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28261,7 +28261,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28311,7 +28311,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R542">
         <v>7</v>
@@ -28361,7 +28361,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28408,7 +28408,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="545" spans="1:17">
@@ -28449,10 +28449,10 @@
         <v>1</v>
       </c>
       <c r="P545" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q545">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="546" spans="1:17">
@@ -28493,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
